--- a/manasa.xlsx
+++ b/manasa.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29711"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71B6DA2F-E202-4ABC-9D16-AECBBB1A08B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3D6A556-E512-44B4-B3B6-487826D25033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -775,7 +775,7 @@
     <t>Q24</t>
   </si>
   <si>
-    <t>Configure firewall rules to allow only ICMP and SSH traffic to a specific subnet.</t>
+    <t>Configure firewall rules to allow only ICMP and SSH traffic to a specific subnet. siva</t>
   </si>
   <si>
     <t>Q25</t>
@@ -1225,8 +1225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/manasa.xlsx
+++ b/manasa.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29711"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3D6A556-E512-44B4-B3B6-487826D25033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2831BED4-CCED-46FC-9417-BAEBDBD742A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="84">
   <si>
     <t>Member</t>
   </si>
@@ -666,7 +666,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> to have access to only one bucket and attach it to a VM.</t>
+      <t xml:space="preserve"> to have access to only one bucket and attach it to a VM.manasa*********************</t>
     </r>
   </si>
   <si>
@@ -842,6 +842,9 @@
   </si>
   <si>
     <t>Deploy a VM in a private subnet, attach a service account with read-only access to a bucket, and configure NAT for internet access.</t>
+  </si>
+  <si>
+    <t>***************siva</t>
   </si>
 </sst>
 </file>
@@ -1223,10 +1226,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1505,7 +1508,7 @@
       <c r="C19" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1731,6 +1734,11 @@
       </c>
       <c r="D36" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="D37" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/manasa.xlsx
+++ b/manasa.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29711"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2831BED4-CCED-46FC-9417-BAEBDBD742A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B0E81B0-FF9E-4908-A5C7-E2F925F584BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="85">
   <si>
     <t>Member</t>
   </si>
@@ -842,6 +842,9 @@
   </si>
   <si>
     <t>Deploy a VM in a private subnet, attach a service account with read-only access to a bucket, and configure NAT for internet access.</t>
+  </si>
+  <si>
+    <t>heard</t>
   </si>
   <si>
     <t>***************siva</t>
@@ -1228,8 +1231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1737,8 +1740,11 @@
       </c>
     </row>
     <row r="37" spans="1:4">
+      <c r="C37" t="s">
+        <v>83</v>
+      </c>
       <c r="D37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/manasa.xlsx
+++ b/manasa.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29711"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B0E81B0-FF9E-4908-A5C7-E2F925F584BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{610923BB-0567-4F1F-B6CE-9695B79CEC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="86">
   <si>
     <t>Member</t>
   </si>
@@ -42,7 +42,7 @@
     <t>Difficulty</t>
   </si>
   <si>
-    <t>Scenario-Based Question</t>
+    <t>Scenario-Based Question mediam</t>
   </si>
   <si>
     <t>Navya</t>
@@ -689,18 +689,48 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
       <t xml:space="preserve">Deploy a </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>global load balancer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> with two backend instance groups in different zones and configure health checks. mediam</t>
+    </r>
+  </si>
+  <si>
+    <t>Q22</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Create a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>global load balancer</t>
+      <t>private subnet</t>
     </r>
     <r>
       <rPr>
@@ -710,11 +740,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> with two backend instance groups in different zones and configure health checks.</t>
-    </r>
-  </si>
-  <si>
-    <t>Q22</t>
+      <t xml:space="preserve"> with NAT gateway, deploy a VM, and attach a service account with storage object read permissions.</t>
+    </r>
+  </si>
+  <si>
+    <t>Q23</t>
   </si>
   <si>
     <r>
@@ -729,7 +759,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>private subnet</t>
+      <t>bucket with lifecycle rules</t>
     </r>
     <r>
       <rPr>
@@ -739,35 +769,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> with NAT gateway, deploy a VM, and attach a service account with storage object read permissions.</t>
-    </r>
-  </si>
-  <si>
-    <t>Q23</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Create a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>bucket with lifecycle rules</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve"> to move objects older than 30 days to Nearline storage.</t>
     </r>
   </si>
@@ -829,7 +830,7 @@
     <t>Q33</t>
   </si>
   <si>
-    <t>Create a bucket that is publicly readable with object versioning enabled.</t>
+    <t>Create a bucket that is publicly readable with object versioning enabled. mediam</t>
   </si>
   <si>
     <t>Q34</t>
@@ -848,6 +849,9 @@
   </si>
   <si>
     <t>***************siva</t>
+  </si>
+  <si>
+    <t>mediam</t>
   </si>
 </sst>
 </file>
@@ -1229,10 +1233,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1553,7 +1557,7 @@
       <c r="C22" t="s">
         <v>6</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1745,6 +1749,11 @@
       </c>
       <c r="D37" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="C38" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
